--- a/Data_clean/MCAS/Estados_US/Edos_USA_2013/SOUTH_DAKOTA_2013.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2013/SOUTH_DAKOTA_2013.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Champoton</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>San Cristobal De Las Casas</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tuxtla Gutierrez</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Villa Comaltitlan</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Muzquiz</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Parras</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Torreon</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Benito Juarez</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tlahuac</t>
@@ -940,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -953,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1067,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -1080,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Otzolotepec</t>
@@ -1093,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tenango Del Aire</t>
@@ -1106,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1119,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1132,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1145,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Dolores Hidalgo</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Leon</t>
@@ -1215,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Purisima Del Rincon</t>
@@ -1228,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -1241,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>San Francisco Del Rincon</t>
@@ -1254,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1280,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1293,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1324,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Ajuchitlan Del Progreso</t>
@@ -1337,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Atoyac De Alvarez</t>
@@ -1350,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Coahuayutla De Jose Maria Izazaga</t>
@@ -1363,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -1376,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -1389,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -1402,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -1415,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Tecpan De Galeana</t>
@@ -1428,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1459,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1472,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ayotlan</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Guachinango</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1568,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Jesus Maria</t>
@@ -1581,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1594,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -1607,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Poncitlan</t>
@@ -1620,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Diego De Alejandria</t>
@@ -1633,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1646,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tecalitlan</t>
@@ -1659,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -1672,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -1685,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Union De San Antonio</t>
@@ -1698,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Union De Tula</t>
@@ -1711,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -1724,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1755,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -1768,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Coalcoman De Vazquez Pallares</t>
@@ -1781,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -1794,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1807,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1820,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Querendaro</t>
@@ -1833,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tacambaro</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tangancicuaro</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tarimbaro</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Zinapecuaro</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1955,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1968,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1999,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Ahuacatlan</t>
@@ -2012,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -2025,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>San Pedro Lagunillas</t>
@@ -2038,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2069,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -2082,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2113,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Oaxaca De Juarez</t>
@@ -2126,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ocotlan De Morelos</t>
@@ -2139,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>San Agustin Loxicha</t>
@@ -2152,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>San Dionisio Ocotepec</t>
@@ -2165,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>San Juan Mazatlan</t>
@@ -2178,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>San Pedro Tapanatepec</t>
@@ -2191,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Santiago Yosondua</t>
@@ -2204,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Santo Domingo Petapa</t>
@@ -2217,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Santo Domingo Tonala</t>
@@ -2230,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Yogana</t>
@@ -2243,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2274,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -2287,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2300,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -2313,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -2326,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Zacatlan</t>
@@ -2339,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -2352,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -2365,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2396,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -2409,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2440,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -2453,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -2466,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Vanegas</t>
@@ -2479,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -2492,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -2505,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2536,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Cosala</t>
@@ -2549,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Culiacan</t>
@@ -2562,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2593,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2624,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2655,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -2668,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -2681,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2712,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -2725,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -2738,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Martinez De La Torre</t>
@@ -2751,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -2764,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Nautla</t>
@@ -2777,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -2790,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2803,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2816,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -2829,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2860,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -2873,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -2886,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Valparaiso</t>
@@ -2899,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -2912,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Total</t>
